--- a/data/Map108.xlsx
+++ b/data/Map108.xlsx
@@ -719,7 +719,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,497 +727,500 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>98</v>
       </c>

--- a/data/Map108.xlsx
+++ b/data/Map108.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>自動実行</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>なんと身体が小さくなってしまった・・・！</t>
+  </si>
+  <si>
+    <t>--------キャラ指定-----座標設定------------</t>
+  </si>
+  <si>
+    <t>----------------------------------------</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;なぁに？
@@ -144,7 +150,13 @@
 私が先にご飯にするー♥</t>
   </si>
   <si>
+    <t>ーーーーー待機or攻撃アニメSE選択ーーーーー</t>
+  </si>
+  <si>
     <t>MP_SET_speed 5 50</t>
+  </si>
+  <si>
+    <t>--------ここから誘惑------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;わぁ♥
@@ -162,6 +174,9 @@
 私の乳首でもぐもぐされるのどーお？気持ちいー？</t>
   </si>
   <si>
+    <t>--------ここから選択肢-------------</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;抜け出さなきゃなのに
 にゅるにゅるおちんちんに絡みついてきて
 逃げられないねー♥</t>
@@ -179,6 +194,9 @@
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;おいでおいでー♥</t>
+  </si>
+  <si>
+    <t>--------ここからクリア------------</t>
   </si>
   <si>
     <t>\n&lt;\n[3]&gt;むー・・・
@@ -719,7 +737,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,502 +745,826 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="B76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="B77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="B78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="B79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="B87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="B88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="B90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="B94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="B97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map108.xlsx
+++ b/data/Map108.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3080D874-0C53-43C3-85FE-76EA9133096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="175">
   <si>
     <t>自動実行</t>
   </si>
@@ -399,22 +405,285 @@
   </si>
   <si>
     <t>EV082</t>
+  </si>
+  <si>
+    <t>You found the Balcony Key!
+Now you can get outside...!</t>
+  </si>
+  <si>
+    <t>Nothing else useful.</t>
+  </si>
+  <si>
+    <t>Stepped on a trap...!</t>
+  </si>
+  <si>
+    <t>A rusty iron grate...</t>
+  </si>
+  <si>
+    <t>Pantry door</t>
+  </si>
+  <si>
+    <t>The key is in the lock…</t>
+  </si>
+  <si>
+    <t>Lily's Diary</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Don't read</t>
+  </si>
+  <si>
+    <t>Your body has become tiny…!</t>
+  </si>
+  <si>
+    <t>\C[10]Short story</t>
+  </si>
+  <si>
+    <t>Shrunken battle</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What's this?
+Do you want to get eaten again? Pervert♥
+You stepped on it on purpose.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Am I wrong?
+Really? Hmmmm.
+Well, no matter, either way.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What were you doing in the pantry?
+Were you hungry?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;That's toooo bad.
+It's my turn to eat.</t>
+  </si>
+  <si>
+    <t>I received a short story from Camel of the vore group D-Gate.
+You can see an event based on the story. If you select it,
+you'll be eaten, and the game will be over. Be careful!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You fought as hard as you could.
+So you really didn't want to be eaten?
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;That spell will wear off soon. Well, if you ever
+miss my mouth, let me know, ok? I'll shrink you
+down and play with you again♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>Your body returned to its normal size!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahaha! Caught you!
+You're so tiny and cute♥ Hee hee♥</t>
+  </si>
+  <si>
+    <t>The bathroom mop is broken!
+The head broke off, and now it's just a 『Stick』.
+Ako, please, we really need a mop!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Succubi have such ordinary shopping lists…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(A mop… Could I use that as a weapon?
+The reach would be better than the little fruit knife…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(A mop… Could I use that as a weapon?
+I guess it would be better than nothing…)</t>
+  </si>
+  <si>
+    <t>Anything useful here…</t>
+  </si>
+  <si>
+    <t>A lavishly decorated key…
+What could it unlock?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What are you rummaging around for?
+Are you hungry-?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you're hungry, I can make you something to eat-♥
+But... Before that...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Squish♥
+I get to eat first-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Waah♥
+When we hugged, your dick got stuck in my nipple♥
+Ahaha-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's nice to be held in between my boobs, but...
+It's something completely different to be held inside them-♥
+Hee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hey, hey♥
+Are you pumping your hips-?
+Are you writhing there, inside my nipple-? Does it feel good?</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you don't break free now, 
+my slimy body will coil around your dick,
+and then you'll never escape-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Did you think you'd be free by now?
+Not this time-♥
+I want you to let it all out inside me-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Cum, cum-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hmph...
+Are you really still resisting, even when you're so hard? Ahh.
+Such a shame...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;But won't you let me know if you ever want to do it again?
+I'll eat you up any time you want.
+Well, see you again-♥</t>
+  </si>
+  <si>
+    <t>Ingredients line the shelf…</t>
+  </si>
+  <si>
+    <t>The clock is ticking…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder how long I'll be trapped here…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(My sense of time is all messed up…
+I need to get out of here right away…)</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Calling the Search</t>
+  </si>
+  <si>
+    <t>It reads Food Storage…</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder if they have anything sweet?)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I hope nothing has gone rotten…)</t>
+  </si>
+  <si>
+    <t>Notice when serving dinner guests
+1: Keep yourself well groomed
+2: Keep a hospitable spirit</t>
+  </si>
+  <si>
+    <t>3: Ensure dishes are the right temperature
+4: Recommend alcohol as often as possible (high alcohol content)
+5: Keep your speaking brief</t>
+  </si>
+  <si>
+    <t>6: Report unusual behavior to security, or contact head maid
+7: If no issues arise, send them home with a smile</t>
+  </si>
+  <si>
+    <t>How to open the rusted gate…</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>Don't see</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(These would go nice with a hamburger.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Vile, sour things.
+No hamburger should be disgraced by your presence.)</t>
+  </si>
+  <si>
+    <t>Various types are vinegar sit on the shelf.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Mother used to say that drinking vinegar would make your
+skin softer. She probably made that up.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(People who can make this stuff are next-level cooks.)</t>
+  </si>
+  <si>
+    <t>Cooking sake lines the shelf.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I never expected food served by succubi would be so
+incredibly delicious...
+It's really bizarre.)</t>
+  </si>
+  <si>
+    <t>A cutting board.</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(The food here has all been weirdly delicious.
+It feels wrong somehow…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(You can soften meat, and remove unpleasant odors.
+I don't need any right now though.)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I've got no idea how to cook with this.)</t>
+  </si>
+  <si>
+    <t>The balcony key!
+Now you can get outside…!</t>
+  </si>
+  <si>
+    <t>The jars are full of pickles.</t>
+  </si>
+  <si>
+    <t>Lily's Diary
+Lime-Style Diet</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(I wonder if succubi eat normal food too.
+I wish I could eat this well…)</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[1]&gt;(Don't let your hunger distract you...)</t>
+  </si>
+  <si>
+    <t>Attack the gate with an ice weapon.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,28 +691,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -733,19 +1018,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="73" customWidth="1"/>
+    <col min="3" max="3" width="94" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -761,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -769,31 +1056,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -801,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -809,193 +1105,253 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="C18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="C25" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1003,52 +1359,67 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1056,49 +1427,61 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1106,7 +1489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1114,44 +1497,56 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1159,127 +1554,172 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1287,7 +1727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1295,135 +1735,183 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="C79" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1431,127 +1919,145 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="C93" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1559,7 +2065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1568,17 +2074,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>